--- a/Halli/uusi_lista.xlsx
+++ b/Halli/uusi_lista.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>Oskari Nurmi</t>
-  </si>
-  <si>
-    <t>Nico Miettinen</t>
-  </si>
-  <si>
     <t>ery</t>
   </si>
   <si>
@@ -42,9 +36,6 @@
     <t>tyuityi</t>
   </si>
   <si>
-    <t>Kori Andersson</t>
-  </si>
-  <si>
     <t>ert</t>
   </si>
   <si>
@@ -72,10 +63,19 @@
     <t>awe</t>
   </si>
   <si>
-    <t>Jon Jonne Ne</t>
-  </si>
-  <si>
-    <t>Ha Hue Hue Hue Ha</t>
+    <t>Nurmi Oskari</t>
+  </si>
+  <si>
+    <t>Miettinen Nico</t>
+  </si>
+  <si>
+    <t>Andersson Kori</t>
+  </si>
+  <si>
+    <t>Teronen Tero</t>
+  </si>
+  <si>
+    <t>Kankkunen Kalevi</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,16 +412,16 @@
         <v>1234567</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1">
         <v>856</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -429,16 +429,16 @@
         <v>7654321</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -446,16 +446,16 @@
         <v>2345262</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -466,13 +466,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -483,13 +483,13 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
